--- a/项目进度控制表--樊佩茹.xlsx
+++ b/项目进度控制表--樊佩茹.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-depository\SchoolMange4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB81A646-E7CC-4075-953B-E6970053126B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1770" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1770" windowWidth="20730" windowHeight="11385" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="25">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -94,18 +88,23 @@
     <t>我的缺寝记录</t>
   </si>
   <si>
-    <t>修改未做完，按照指定的条件查询未做</t>
+    <t>模糊查询未完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>模糊查询未完成</t>
+    <t>按照指定的条件查询未做完</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改未做完，添加未做完，按照条件查询未做</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -379,11 +378,14 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,14 +686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -699,7 +701,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -708,7 +710,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -725,7 +727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -740,7 +742,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -749,7 +751,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -758,7 +760,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -767,7 +769,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -776,7 +778,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -785,7 +787,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -794,7 +796,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -803,7 +805,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -812,7 +814,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -821,7 +823,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -830,7 +832,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -839,7 +841,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -854,7 +856,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -863,7 +865,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -872,7 +874,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -881,7 +883,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -890,7 +892,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -905,7 +907,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -914,7 +916,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -923,7 +925,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -932,49 +934,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="17"/>
     </row>
   </sheetData>
@@ -991,14 +993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -1006,7 +1008,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1017,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +1045,7 @@
       <c r="D3" s="22"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1052,7 +1054,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1061,7 +1063,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1070,7 +1072,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1079,7 +1081,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1088,7 +1090,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1097,7 +1099,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1106,7 +1108,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1115,7 +1117,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1124,7 +1126,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1133,7 +1135,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1142,7 +1144,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -1153,7 +1155,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1162,7 +1164,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1171,7 +1173,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1180,7 +1182,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1189,7 +1191,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1202,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1209,7 +1211,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1218,7 +1220,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1227,49 +1229,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="17"/>
     </row>
   </sheetData>
@@ -1286,14 +1288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -1301,7 +1303,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1312,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -1342,7 +1344,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1355,7 +1357,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1364,7 +1366,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1373,7 +1375,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1382,7 +1384,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1391,7 +1393,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1400,7 +1402,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1409,7 +1411,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1418,7 +1420,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1427,7 +1429,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1436,7 +1438,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1445,7 +1447,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -1456,7 +1458,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1465,7 +1467,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1474,7 +1476,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1483,7 +1485,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1492,7 +1494,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -1503,7 +1505,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1512,7 +1514,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1521,7 +1523,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1530,49 +1532,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="17"/>
     </row>
   </sheetData>
@@ -1589,14 +1591,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -1604,7 +1606,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1615,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1630,7 +1632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -1641,7 +1643,7 @@
       <c r="D3" s="22"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1650,7 +1652,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1659,7 +1661,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1668,7 +1670,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1677,7 +1679,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1686,7 +1688,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1695,7 +1697,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1704,7 +1706,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1713,7 +1715,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1722,7 +1724,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1731,7 +1733,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1740,7 +1742,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -1751,7 +1753,7 @@
       <c r="D15" s="8"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1760,7 +1762,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1769,7 +1771,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1778,7 +1780,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1787,7 +1789,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -1798,7 +1800,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1807,7 +1809,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1816,7 +1818,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1825,49 +1827,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="17"/>
     </row>
   </sheetData>
@@ -1883,14 +1885,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -1898,7 +1900,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1909,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1924,7 +1926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -1939,7 +1941,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1951,10 +1953,10 @@
         <v>0.8</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1963,7 +1965,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1972,7 +1974,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1981,7 +1983,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1990,7 +1992,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1999,7 +2001,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -2008,7 +2010,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2017,7 +2019,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -2026,7 +2028,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2035,7 +2037,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -2044,7 +2046,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -2059,7 +2061,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -2068,7 +2070,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2077,7 +2079,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2086,7 +2088,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2095,7 +2097,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -2110,7 +2112,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2119,7 +2121,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2128,7 +2130,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2137,49 +2139,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="17"/>
     </row>
   </sheetData>
@@ -2195,14 +2197,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -2210,7 +2212,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2219,7 +2221,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2236,7 +2238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -2251,7 +2253,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -2260,7 +2262,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -2269,7 +2271,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -2278,7 +2280,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -2287,7 +2289,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -2296,7 +2298,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -2305,7 +2307,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -2314,7 +2316,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2323,7 +2325,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -2332,7 +2334,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2341,7 +2343,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -2350,7 +2352,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -2365,7 +2367,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -2374,7 +2376,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2383,7 +2385,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2392,7 +2394,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2401,7 +2403,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -2416,7 +2418,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2425,7 +2427,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2434,7 +2436,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2443,49 +2445,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="17"/>
     </row>
   </sheetData>
@@ -2501,14 +2503,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="29.75" customWidth="1"/>
@@ -2516,7 +2518,7 @@
     <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2525,7 +2527,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2542,7 +2544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -2557,31 +2559,37 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>43663</v>
+        <v>43664</v>
       </c>
       <c r="D4" s="4">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16.5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.5">
+      <c r="C5" s="30">
+        <v>43664</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -2590,7 +2598,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -2599,7 +2607,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -2608,7 +2616,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -2617,7 +2625,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -2626,7 +2634,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2635,7 +2643,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -2644,7 +2652,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2653,7 +2661,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -2662,7 +2670,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -2677,7 +2685,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -2686,7 +2694,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2695,7 +2703,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2704,7 +2712,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2713,7 +2721,7 @@
       <c r="D19" s="8"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -2728,7 +2736,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2737,7 +2745,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2746,7 +2754,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2755,49 +2763,49 @@
       <c r="D23" s="8"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
       <c r="E25" s="13"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="14"/>
       <c r="B27" s="10"/>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="14"/>
       <c r="B28" s="10"/>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="10"/>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
       <c r="E29" s="16"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="17"/>
     </row>
   </sheetData>

--- a/项目进度控制表--樊佩茹.xlsx
+++ b/项目进度控制表--樊佩茹.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-depository\SchoolMange4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A1C278-56F0-4BE6-B2E6-121D43A7CF2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12468" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="28">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -88,9 +94,6 @@
     <t>我的缺寝记录</t>
   </si>
   <si>
-    <t>模糊查询未完成</t>
-  </si>
-  <si>
     <t>按照指定的条件查询未做完</t>
   </si>
   <si>
@@ -115,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,18 +139,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -155,58 +161,68 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -388,13 +404,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -443,7 +462,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -476,9 +495,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -511,6 +547,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -686,22 +739,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -710,7 +763,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -727,7 +780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -742,7 +795,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -755,7 +808,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -768,7 +821,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -777,7 +830,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -786,7 +839,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -795,7 +848,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -804,7 +857,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -813,7 +866,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -822,7 +875,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -831,7 +884,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -840,7 +893,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -849,7 +902,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -864,7 +917,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -873,7 +926,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -882,7 +935,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -891,7 +944,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -900,7 +953,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -915,7 +968,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -924,7 +977,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -933,7 +986,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -942,49 +995,49 @@
       <c r="D23" s="9"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -1001,22 +1054,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1025,7 +1078,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1042,7 +1095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -1053,7 +1106,7 @@
       <c r="D3" s="24"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1062,7 +1115,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1071,7 +1124,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1080,7 +1133,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1089,7 +1142,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1098,7 +1151,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1107,7 +1160,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1116,7 +1169,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1125,7 +1178,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1134,7 +1187,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1143,7 +1196,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1152,7 +1205,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -1163,7 +1216,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1172,7 +1225,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1181,7 +1234,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1190,7 +1243,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1199,7 +1252,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -1210,7 +1263,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1219,7 +1272,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1228,7 +1281,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1237,49 +1290,49 @@
       <c r="D23" s="9"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -1296,22 +1349,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1320,7 +1373,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1337,7 +1390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -1352,7 +1405,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1365,7 +1418,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1374,7 +1427,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1383,7 +1436,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1392,7 +1445,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1401,7 +1454,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1410,7 +1463,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1419,7 +1472,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1428,7 +1481,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1437,7 +1490,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1446,7 +1499,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1455,7 +1508,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -1466,7 +1519,7 @@
       <c r="D15" s="9"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1475,7 +1528,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1484,7 +1537,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1493,7 +1546,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1502,7 +1555,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -1513,7 +1566,7 @@
       <c r="D20" s="9"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1522,7 +1575,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1531,7 +1584,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1540,49 +1593,49 @@
       <c r="D23" s="9"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -1599,22 +1652,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1676,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1640,7 +1693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -1655,7 +1708,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1664,7 +1717,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -1673,7 +1726,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -1682,7 +1735,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -1691,7 +1744,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -1700,7 +1753,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -1709,7 +1762,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -1718,7 +1771,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -1727,7 +1780,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -1736,7 +1789,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -1745,7 +1798,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -1758,7 +1811,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -1773,7 +1826,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -1782,7 +1835,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -1791,7 +1844,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -1800,7 +1853,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -1813,7 +1866,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -1828,7 +1881,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -1837,7 +1890,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -1846,7 +1899,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -1859,49 +1912,49 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -1917,22 +1970,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -1941,7 +1994,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1958,7 +2011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -1973,7 +2026,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -1982,22 +2035,24 @@
         <v>43663</v>
       </c>
       <c r="D4" s="4">
-        <v>0.8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="8">
+        <v>43667</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.8</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -2006,7 +2061,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -2015,7 +2070,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -2024,7 +2079,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -2033,7 +2088,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -2042,7 +2097,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2051,7 +2106,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -2060,7 +2115,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2069,16 +2124,20 @@
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="C14" s="8">
+        <v>43667</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -2093,16 +2152,20 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="8">
+        <v>43667</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2111,7 +2174,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2120,16 +2183,20 @@
       <c r="D18" s="9"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="8">
+        <v>43667</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -2144,7 +2211,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2153,7 +2220,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2162,58 +2229,62 @@
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="C23" s="8">
+        <v>43667</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -2229,22 +2300,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2253,7 +2324,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2270,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -2285,7 +2356,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -2298,7 +2369,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -2311,7 +2382,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -2323,10 +2394,10 @@
         <v>0.7</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -2338,10 +2409,10 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -2350,7 +2421,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -2359,7 +2430,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -2368,7 +2439,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2377,7 +2448,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -2386,7 +2457,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2398,10 +2469,10 @@
         <v>0.8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -2414,7 +2485,7 @@
       </c>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -2429,7 +2500,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -2441,10 +2512,10 @@
         <v>0.1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2453,7 +2524,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2465,10 +2536,10 @@
         <v>0.8</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2481,7 +2552,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -2496,7 +2567,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2505,7 +2576,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2517,10 +2588,10 @@
         <v>0.8</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2533,49 +2604,49 @@
       </c>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>
@@ -2591,22 +2662,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.75" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -2615,7 +2686,7 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2632,7 +2703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="28" t="s">
         <v>6</v>
       </c>
@@ -2647,7 +2718,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="28"/>
       <c r="B4" s="6" t="s">
         <v>8</v>
@@ -2659,10 +2730,10 @@
         <v>0.7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="28"/>
       <c r="B5" s="6" t="s">
         <v>9</v>
@@ -2674,10 +2745,10 @@
         <v>0.2</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="28"/>
       <c r="B6" s="6" t="s">
         <v>10</v>
@@ -2686,7 +2757,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="28"/>
       <c r="B7" s="6" t="s">
         <v>11</v>
@@ -2695,7 +2766,7 @@
       <c r="D7" s="9"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="28"/>
       <c r="B8" s="6" t="s">
         <v>12</v>
@@ -2704,7 +2775,7 @@
       <c r="D8" s="9"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="28"/>
       <c r="B9" s="6" t="s">
         <v>13</v>
@@ -2713,7 +2784,7 @@
       <c r="D9" s="9"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="28"/>
       <c r="B10" s="6" t="s">
         <v>14</v>
@@ -2722,7 +2793,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="28"/>
       <c r="B11" s="6" t="s">
         <v>15</v>
@@ -2731,7 +2802,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="28"/>
       <c r="B12" s="6" t="s">
         <v>16</v>
@@ -2740,7 +2811,7 @@
       <c r="D12" s="9"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="28"/>
       <c r="B13" s="6" t="s">
         <v>17</v>
@@ -2749,7 +2820,7 @@
       <c r="D13" s="9"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="28"/>
       <c r="B14" s="6" t="s">
         <v>18</v>
@@ -2758,7 +2829,7 @@
       <c r="D14" s="9"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="28" t="s">
         <v>19</v>
       </c>
@@ -2773,7 +2844,7 @@
       </c>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="28"/>
       <c r="B16" s="6" t="s">
         <v>9</v>
@@ -2782,7 +2853,7 @@
       <c r="D16" s="9"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="28"/>
       <c r="B17" s="6" t="s">
         <v>15</v>
@@ -2791,7 +2862,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="28"/>
       <c r="B18" s="6" t="s">
         <v>17</v>
@@ -2800,7 +2871,7 @@
       <c r="D18" s="9"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="28"/>
       <c r="B19" s="6" t="s">
         <v>18</v>
@@ -2809,7 +2880,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="29" t="s">
         <v>20</v>
       </c>
@@ -2824,7 +2895,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="29"/>
       <c r="B21" s="6" t="s">
         <v>21</v>
@@ -2833,7 +2904,7 @@
       <c r="D21" s="9"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="29"/>
       <c r="B22" s="6" t="s">
         <v>17</v>
@@ -2842,7 +2913,7 @@
       <c r="D22" s="9"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="29"/>
       <c r="B23" s="6" t="s">
         <v>18</v>
@@ -2851,49 +2922,49 @@
       <c r="D23" s="9"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="12"/>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="11"/>
       <c r="C27" s="12"/>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="11"/>
       <c r="C28" s="12"/>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="11"/>
       <c r="C29" s="12"/>
       <c r="D29" s="13"/>
       <c r="E29" s="17"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="18"/>
     </row>
   </sheetData>

--- a/项目进度控制表--樊佩茹.xlsx
+++ b/项目进度控制表--樊佩茹.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\SchoolMange4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D8BEF3-0E28-4A9D-95F3-664BFD931B0F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -114,7 +120,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,7 +312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +381,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -394,7 +415,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -452,7 +473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,9 +506,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -520,6 +558,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -695,31 +750,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -736,8 +791,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -751,8 +806,8 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="31"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -764,8 +819,8 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="31"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -777,8 +832,8 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="31"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -786,8 +841,8 @@
       <c r="D6" s="7"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="31"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -795,8 +850,8 @@
       <c r="D7" s="7"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="31"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -804,8 +859,8 @@
       <c r="D8" s="7"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="31"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -813,8 +868,8 @@
       <c r="D9" s="7"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="31"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -822,8 +877,8 @@
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="31"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -831,8 +886,8 @@
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="31"/>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
@@ -840,8 +895,8 @@
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="31"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -849,8 +904,8 @@
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="31"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
@@ -858,8 +913,8 @@
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -873,8 +928,8 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="31"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -882,8 +937,8 @@
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="31"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
@@ -891,8 +946,8 @@
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="31"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -900,8 +955,8 @@
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="31"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
@@ -909,8 +964,8 @@
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -924,8 +979,8 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="32"/>
       <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
@@ -933,8 +988,8 @@
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="32"/>
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -942,8 +997,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="32"/>
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
@@ -951,49 +1006,49 @@
       <c r="D23" s="7"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="16"/>
     </row>
   </sheetData>
@@ -1010,31 +1065,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1051,8 +1106,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1062,8 +1117,8 @@
       <c r="D3" s="22"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="31"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1071,8 +1126,8 @@
       <c r="D4" s="7"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="31"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1080,8 +1135,8 @@
       <c r="D5" s="7"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="31"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1089,8 +1144,8 @@
       <c r="D6" s="7"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="31"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1153,8 @@
       <c r="D7" s="7"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="31"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1107,8 +1162,8 @@
       <c r="D8" s="7"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="31"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1116,8 +1171,8 @@
       <c r="D9" s="7"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="31"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1125,8 +1180,8 @@
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="31"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1134,8 +1189,8 @@
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="31"/>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1143,8 +1198,8 @@
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="31"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1152,8 +1207,8 @@
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="31"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1161,8 +1216,8 @@
       <c r="D14" s="7"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1172,8 +1227,8 @@
       <c r="D15" s="7"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="31"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1181,8 +1236,8 @@
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="31"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1190,8 +1245,8 @@
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="31"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1199,8 +1254,8 @@
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="31"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1208,8 +1263,8 @@
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1219,8 +1274,8 @@
       <c r="D20" s="7"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="32"/>
       <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
@@ -1228,8 +1283,8 @@
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="32"/>
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1237,8 +1292,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="32"/>
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
@@ -1246,49 +1301,49 @@
       <c r="D23" s="7"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="16"/>
     </row>
   </sheetData>
@@ -1305,22 +1360,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1384,7 @@
       <c r="D1" s="24"/>
       <c r="E1" s="25"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1346,7 +1401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
@@ -1361,7 +1416,7 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="26"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
@@ -1370,47 +1425,59 @@
         <v>43663</v>
       </c>
       <c r="D4" s="3">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="26"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="26"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="26"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="26"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="26"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
@@ -1419,7 +1486,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="26"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
@@ -1428,7 +1495,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="26"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
@@ -1437,7 +1504,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="26"/>
       <c r="B12" s="5" t="s">
         <v>16</v>
@@ -1446,7 +1513,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="26"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
@@ -1455,36 +1522,48 @@
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="26"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="6">
+        <v>43664</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="26"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+      <c r="C16" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="26"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
@@ -1493,7 +1572,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="26"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
@@ -1502,27 +1581,35 @@
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="26"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
+      <c r="C19" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="6">
+        <v>43664</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="27"/>
       <c r="B21" s="5" t="s">
         <v>21</v>
@@ -1531,7 +1618,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="27"/>
       <c r="B22" s="5" t="s">
         <v>17</v>
@@ -1540,67 +1627,65 @@
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="27"/>
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="6">
+        <v>43668</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A23"/>
-  </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1608,31 +1693,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1649,8 +1734,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1664,8 +1749,8 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="31"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1673,8 +1758,8 @@
       <c r="D4" s="7"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="31"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1682,8 +1767,8 @@
       <c r="D5" s="7"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="31"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1691,8 +1776,8 @@
       <c r="D6" s="7"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="31"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1700,8 +1785,8 @@
       <c r="D7" s="7"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="31"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1709,8 +1794,8 @@
       <c r="D8" s="7"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="31"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1718,8 +1803,8 @@
       <c r="D9" s="7"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="31"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1727,8 +1812,8 @@
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="31"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1736,8 +1821,8 @@
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="31"/>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
@@ -1745,8 +1830,8 @@
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="31"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -1754,8 +1839,8 @@
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="31"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1767,8 +1852,8 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1782,8 +1867,8 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="31"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -1791,8 +1876,8 @@
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="31"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
@@ -1800,8 +1885,8 @@
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="31"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -1809,8 +1894,8 @@
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="31"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1822,8 +1907,8 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1837,8 +1922,8 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="32"/>
       <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
@@ -1846,8 +1931,8 @@
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="32"/>
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -1855,8 +1940,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="32"/>
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
@@ -1868,49 +1953,49 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="16"/>
     </row>
   </sheetData>
@@ -1926,31 +2011,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1967,8 +2052,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1982,8 +2067,8 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="31"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1995,8 +2080,8 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="31"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2008,8 +2093,8 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="31"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2017,8 +2102,8 @@
       <c r="D6" s="7"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="31"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2026,8 +2111,8 @@
       <c r="D7" s="7"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="31"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2035,8 +2120,8 @@
       <c r="D8" s="7"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="31"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2044,8 +2129,8 @@
       <c r="D9" s="7"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="31"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2053,8 +2138,8 @@
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="31"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2062,8 +2147,8 @@
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="31"/>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2071,8 +2156,8 @@
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="31"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2080,8 +2165,8 @@
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="31"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2093,8 +2178,8 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2108,8 +2193,8 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="31"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2121,8 +2206,8 @@
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="31"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2130,8 +2215,8 @@
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="31"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -2139,8 +2224,8 @@
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="31"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
@@ -2152,8 +2237,8 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2167,8 +2252,8 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="32"/>
       <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
@@ -2176,8 +2261,8 @@
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="32"/>
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -2185,8 +2270,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="32"/>
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
@@ -2198,49 +2283,49 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="16"/>
     </row>
   </sheetData>
@@ -2256,31 +2341,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2297,8 +2382,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2312,8 +2397,8 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="31"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2325,8 +2410,8 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="31"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2338,8 +2423,8 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="31"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2353,8 +2438,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="31"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2368,8 +2453,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="31"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2377,8 +2462,8 @@
       <c r="D8" s="7"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="31"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2386,8 +2471,8 @@
       <c r="D9" s="7"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="31"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2395,8 +2480,8 @@
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="31"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2404,8 +2489,8 @@
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="31"/>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2413,8 +2498,8 @@
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="31"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2428,8 +2513,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="31"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2441,8 +2526,8 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2456,8 +2541,8 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="31"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2471,8 +2556,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="31"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2480,8 +2565,8 @@
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="31"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -2495,8 +2580,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="31"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
@@ -2508,8 +2593,8 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2523,8 +2608,8 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="32"/>
       <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
@@ -2532,8 +2617,8 @@
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="32"/>
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -2547,8 +2632,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="32"/>
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
@@ -2560,49 +2645,49 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="16"/>
     </row>
   </sheetData>
@@ -2618,31 +2703,31 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.75" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2659,8 +2744,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2674,8 +2759,8 @@
       </c>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="31"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2687,8 +2772,8 @@
       </c>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="31"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2700,8 +2785,8 @@
       </c>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="31"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -2715,8 +2800,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="31"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -2730,8 +2815,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="31"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -2739,8 +2824,8 @@
       <c r="D8" s="7"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="31"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -2748,8 +2833,8 @@
       <c r="D9" s="7"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="31"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -2757,8 +2842,8 @@
       <c r="D10" s="3"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="31"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -2766,8 +2851,8 @@
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="31"/>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
@@ -2775,8 +2860,8 @@
       <c r="D12" s="7"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="31"/>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
@@ -2784,8 +2869,8 @@
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="31"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
@@ -2797,8 +2882,8 @@
       </c>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="31" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2812,8 +2897,8 @@
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="31"/>
       <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
@@ -2821,8 +2906,8 @@
       <c r="D16" s="7"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="31"/>
       <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
@@ -2830,8 +2915,8 @@
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="31"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
       </c>
@@ -2839,8 +2924,8 @@
       <c r="D18" s="7"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="31"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
@@ -2852,8 +2937,8 @@
       </c>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="32" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -2867,8 +2952,8 @@
       </c>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="27"/>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="32"/>
       <c r="B21" s="5" t="s">
         <v>21</v>
       </c>
@@ -2876,8 +2961,8 @@
       <c r="D21" s="7"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="32"/>
       <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
@@ -2885,8 +2970,8 @@
       <c r="D22" s="7"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="32"/>
       <c r="B23" s="5" t="s">
         <v>18</v>
       </c>
@@ -2898,49 +2983,49 @@
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="13"/>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="13"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="14"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="11"/>
       <c r="E29" s="15"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="16"/>
     </row>
   </sheetData>

--- a/项目进度控制表--樊佩茹.xlsx
+++ b/项目进度控制表--樊佩茹.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12468" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="27">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -91,12 +91,6 @@
     <t>我的缺寝记录</t>
   </si>
   <si>
-    <t>部分功能未实现</t>
-  </si>
-  <si>
-    <t>报错</t>
-  </si>
-  <si>
     <t>大部分功能未实现</t>
   </si>
   <si>
@@ -105,18 +99,16 @@
   <si>
     <t>模糊查询有错</t>
   </si>
+  <si>
+    <t>部分功能未实现</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,156 +186,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,194 +210,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -603,258 +271,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,7 +293,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,59 +362,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1279,36 +673,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.725" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1325,8 +719,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1340,8 +734,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1353,8 +747,8 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1366,8 +760,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1381,8 +775,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1394,8 +788,8 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1407,8 +801,8 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1420,8 +814,8 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1433,8 +827,8 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1442,8 +836,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1451,8 +845,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1460,8 +854,8 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -1469,8 +863,8 @@
       <c r="D14" s="12"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1484,8 +878,8 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -1493,8 +887,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1502,8 +896,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -1511,8 +905,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -1520,8 +914,8 @@
       <c r="D19" s="12"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -1535,8 +929,8 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
@@ -1544,8 +938,8 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1553,8 +947,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -1562,49 +956,49 @@
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -1614,39 +1008,38 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.725" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1663,8 +1056,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1674,8 +1067,8 @@
       <c r="D3" s="26"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1683,8 +1076,8 @@
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1692,8 +1085,8 @@
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1701,8 +1094,8 @@
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1710,8 +1103,8 @@
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1719,8 +1112,8 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1728,8 +1121,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1737,8 +1130,8 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1746,8 +1139,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1755,8 +1148,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1764,8 +1157,8 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -1773,8 +1166,8 @@
       <c r="D14" s="12"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1784,8 +1177,8 @@
       <c r="D15" s="12"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -1793,8 +1186,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1802,8 +1195,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -1811,8 +1204,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -1820,8 +1213,8 @@
       <c r="D19" s="12"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -1831,8 +1224,8 @@
       <c r="D20" s="12"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
@@ -1840,8 +1233,8 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1849,8 +1242,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -1858,49 +1251,49 @@
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -1910,30 +1303,29 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.725" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1942,7 +1334,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1959,7 +1351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1974,7 +1366,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -1987,7 +1379,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -2000,7 +1392,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -2013,7 +1405,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -2026,7 +1418,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -2035,7 +1427,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -2044,7 +1436,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -2053,7 +1445,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -2062,7 +1454,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -2071,7 +1463,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -2080,7 +1472,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -2093,7 +1485,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2108,7 +1500,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -2121,7 +1513,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -2130,7 +1522,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -2139,7 +1531,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="5"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -2152,7 +1544,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -2167,7 +1559,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -2176,7 +1568,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -2185,7 +1577,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -2198,85 +1590,84 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.725" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2293,8 +1684,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2308,8 +1699,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -2317,8 +1708,8 @@
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2330,8 +1721,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2339,8 +1730,8 @@
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -2348,8 +1739,8 @@
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -2357,8 +1748,8 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2366,8 +1757,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -2375,8 +1766,8 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2384,8 +1775,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -2393,8 +1784,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -2406,8 +1797,8 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -2419,8 +1810,8 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2434,8 +1825,8 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -2443,8 +1834,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2452,8 +1843,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -2461,8 +1852,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -2474,8 +1865,8 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -2489,8 +1880,8 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
@@ -2498,8 +1889,8 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -2507,8 +1898,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -2520,49 +1911,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -2572,38 +1963,37 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.725" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2620,8 +2010,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2635,8 +2025,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -2648,8 +2038,8 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2661,8 +2051,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2670,8 +2060,8 @@
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -2679,8 +2069,8 @@
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -2688,8 +2078,8 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2697,8 +2087,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -2706,8 +2096,8 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2715,8 +2105,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -2724,8 +2114,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -2733,8 +2123,8 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -2746,8 +2136,8 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2761,8 +2151,8 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -2774,8 +2164,8 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2783,8 +2173,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -2792,8 +2182,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -2805,8 +2195,8 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -2820,8 +2210,8 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
@@ -2829,8 +2219,8 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -2838,8 +2228,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -2851,49 +2241,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -2903,38 +2293,37 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.725" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2951,8 +2340,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2966,8 +2355,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -2979,8 +2368,8 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2992,8 +2381,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -3001,14 +2390,12 @@
         <v>43667</v>
       </c>
       <c r="D6" s="8">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -3019,20 +2406,24 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="5"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="11">
+        <v>43668</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.5</v>
+      </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -3040,8 +2431,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -3049,8 +2440,8 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -3058,8 +2449,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -3067,8 +2458,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -3076,14 +2467,12 @@
         <v>43667</v>
       </c>
       <c r="D13" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -3095,8 +2484,8 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -3110,8 +2499,8 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -3122,11 +2511,11 @@
         <v>0.1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="5"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -3134,8 +2523,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -3143,14 +2532,12 @@
         <v>43667</v>
       </c>
       <c r="D18" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="5"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -3162,8 +2549,8 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -3177,17 +2564,21 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="C21" s="11">
+        <v>43668</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0.2</v>
+      </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -3195,14 +2586,12 @@
         <v>43667</v>
       </c>
       <c r="D22" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -3214,49 +2603,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -3266,38 +2655,37 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.725" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="84.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -3314,8 +2702,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -3329,8 +2717,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -3342,8 +2730,8 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -3355,8 +2743,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -3367,11 +2755,11 @@
         <v>0.8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -3382,11 +2770,11 @@
         <v>0.8</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="5"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -3394,8 +2782,8 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -3403,8 +2791,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -3412,8 +2800,8 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -3421,8 +2809,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -3430,8 +2818,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -3439,8 +2827,8 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -3452,8 +2840,8 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -3467,8 +2855,8 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -3476,8 +2864,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -3485,8 +2873,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -3494,8 +2882,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -3507,8 +2895,8 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -3522,8 +2910,8 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
       </c>
@@ -3531,8 +2919,8 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -3540,8 +2928,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -3553,49 +2941,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -3605,8 +2993,8 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/项目进度控制表--樊佩茹.xlsx
+++ b/项目进度控制表--樊佩茹.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12468" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="27">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -97,10 +97,11 @@
     <t>操作管理员未实现</t>
   </si>
   <si>
-    <t>模糊查询有错</t>
+    <t>部分功能未实现</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>部分功能未实现</t>
+    <t>未完全实现</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -685,15 +686,15 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -702,7 +703,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -719,7 +720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
@@ -734,7 +735,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -747,7 +748,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -760,7 +761,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -775,7 +776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -788,7 +789,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -801,7 +802,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -814,7 +815,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -827,7 +828,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -836,7 +837,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -845,7 +846,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -854,7 +855,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -863,7 +864,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
@@ -878,7 +879,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -887,7 +888,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -896,7 +897,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -905,7 +906,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -914,7 +915,7 @@
       <c r="D19" s="12"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
@@ -929,7 +930,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -938,7 +939,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -947,7 +948,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -956,49 +957,49 @@
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -1022,15 +1023,15 @@
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1040,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
@@ -1067,7 +1068,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -1076,7 +1077,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -1085,7 +1086,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -1094,7 +1095,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1103,7 +1104,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1112,7 +1113,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -1121,7 +1122,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -1130,7 +1131,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -1139,7 +1140,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -1148,7 +1149,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -1157,7 +1158,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -1166,7 +1167,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
@@ -1177,7 +1178,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -1186,7 +1187,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -1195,7 +1196,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -1204,7 +1205,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -1213,7 +1214,7 @@
       <c r="D19" s="12"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
@@ -1224,7 +1225,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -1233,7 +1234,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -1242,7 +1243,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -1251,49 +1252,49 @@
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -1317,15 +1318,15 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1335,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1366,7 +1367,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -1379,7 +1380,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -1392,7 +1393,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -1405,7 +1406,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1418,7 +1419,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1427,7 +1428,7 @@
       <c r="D8" s="8"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -1436,7 +1437,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -1445,7 +1446,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -1454,7 +1455,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -1463,7 +1464,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -1472,7 +1473,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -1485,7 +1486,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1500,7 +1501,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -1513,7 +1514,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -1522,7 +1523,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -1531,7 +1532,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -1544,7 +1545,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -1559,7 +1560,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -1568,7 +1569,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -1577,7 +1578,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -1590,49 +1591,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -1650,15 +1651,15 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1668,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1684,7 +1685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
@@ -1699,7 +1700,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -1708,7 +1709,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -1721,7 +1722,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -1730,7 +1731,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1739,7 +1740,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1748,7 +1749,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -1757,7 +1758,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -1766,7 +1767,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -1775,7 +1776,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -1784,7 +1785,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -1797,7 +1798,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -1810,7 +1811,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
@@ -1825,7 +1826,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -1834,7 +1835,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -1843,7 +1844,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -1852,7 +1853,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -1865,7 +1866,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
@@ -1880,7 +1881,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -1889,7 +1890,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -1898,7 +1899,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -1911,49 +1912,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -1976,15 +1977,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +1994,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
@@ -2025,7 +2026,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -2038,7 +2039,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -2051,7 +2052,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -2060,7 +2061,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -2069,7 +2070,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -2078,7 +2079,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -2087,7 +2088,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -2096,7 +2097,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -2105,7 +2106,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -2114,7 +2115,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -2123,7 +2124,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
@@ -2151,7 +2152,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -2164,7 +2165,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -2173,7 +2174,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -2182,7 +2183,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -2195,7 +2196,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
@@ -2210,7 +2211,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -2219,7 +2220,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -2228,7 +2229,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -2241,49 +2242,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -2302,19 +2303,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2323,7 +2324,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
@@ -2355,7 +2356,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -2368,7 +2369,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -2381,7 +2382,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -2394,7 +2395,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -2406,10 +2407,10 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -2422,7 +2423,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -2431,7 +2432,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -2440,7 +2441,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -2449,7 +2450,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -2458,7 +2459,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -2471,7 +2472,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -2484,7 +2485,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
@@ -2499,7 +2500,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -2514,7 +2515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -2523,7 +2524,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -2536,7 +2537,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -2549,7 +2550,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
@@ -2564,7 +2565,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -2577,7 +2578,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -2590,7 +2591,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -2603,49 +2604,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -2664,19 +2665,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="84.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2685,7 +2686,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
@@ -2717,7 +2718,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -2730,7 +2731,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -2743,7 +2744,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -2758,49 +2759,65 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="11">
-        <v>43668</v>
+        <v>43669</v>
       </c>
       <c r="D7" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C8" s="11">
+        <v>43669</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C9" s="11">
+        <v>43669</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="C10" s="11">
+        <v>43669</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -2809,16 +2826,20 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="11">
+        <v>43669</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -2827,7 +2848,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -2840,7 +2861,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
@@ -2855,7 +2876,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -2864,7 +2885,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -2873,7 +2894,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -2882,7 +2903,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -2895,7 +2916,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
@@ -2910,7 +2931,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -2919,7 +2940,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -2928,7 +2949,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -2941,49 +2962,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="E30" s="22"/>
     </row>
   </sheetData>

--- a/项目进度控制表--樊佩茹.xlsx
+++ b/项目进度控制表--樊佩茹.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\SchoolMange4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE6779-6C92-4EDA-A0D8-B69FE13CC394}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -108,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,13 +387,16 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -436,7 +445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,9 +478,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,6 +530,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -679,22 +722,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -703,7 +746,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -720,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
@@ -735,7 +778,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -748,7 +791,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -761,7 +804,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -776,7 +819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -789,7 +832,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -802,7 +845,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -815,7 +858,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -828,7 +871,7 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -837,7 +880,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -846,7 +889,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -855,7 +898,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -864,7 +907,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
@@ -879,7 +922,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -888,7 +931,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -897,7 +940,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -906,7 +949,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -915,7 +958,7 @@
       <c r="D19" s="12"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
@@ -930,7 +973,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -939,7 +982,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -948,7 +991,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -957,49 +1000,49 @@
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -1016,22 +1059,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1040,7 +1083,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1057,7 +1100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
@@ -1068,7 +1111,7 @@
       <c r="D3" s="26"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -1077,7 +1120,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -1086,7 +1129,7 @@
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -1095,7 +1138,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1104,7 +1147,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1113,7 +1156,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -1122,7 +1165,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -1131,7 +1174,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -1140,7 +1183,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -1149,7 +1192,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -1158,7 +1201,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -1167,7 +1210,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
@@ -1178,7 +1221,7 @@
       <c r="D15" s="12"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -1187,7 +1230,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -1196,7 +1239,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -1205,7 +1248,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -1214,7 +1257,7 @@
       <c r="D19" s="12"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
@@ -1225,7 +1268,7 @@
       <c r="D20" s="12"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -1234,7 +1277,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -1243,7 +1286,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -1252,49 +1295,49 @@
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -1311,22 +1354,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1335,7 +1378,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1352,7 +1395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1410,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -1380,7 +1423,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -1393,7 +1436,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -1406,7 +1449,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1419,16 +1462,20 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="8"/>
+      <c r="C8" s="11">
+        <v>43669</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.5</v>
+      </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -1437,7 +1484,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -1446,7 +1493,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -1455,25 +1502,33 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="11">
+        <v>43669</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="11">
+        <v>43668</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.5</v>
+      </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -1486,7 +1541,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1501,7 +1556,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -1514,7 +1569,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -1523,16 +1578,20 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="11">
+        <v>43668</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.5</v>
+      </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -1545,7 +1604,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="13" t="s">
         <v>21</v>
       </c>
@@ -1560,7 +1619,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -1569,16 +1628,20 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="11">
+        <v>43668</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.5</v>
+      </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="13"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -1591,75 +1654,75 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1668,7 +1731,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1685,7 +1748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
@@ -1700,7 +1763,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -1709,7 +1772,7 @@
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -1722,7 +1785,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -1731,7 +1794,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1740,7 +1803,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1749,7 +1812,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -1758,7 +1821,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -1767,7 +1830,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -1776,7 +1839,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -1785,7 +1848,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -1798,7 +1861,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -1811,7 +1874,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
@@ -1826,7 +1889,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -1835,7 +1898,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -1844,7 +1907,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -1853,7 +1916,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -1866,7 +1929,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
@@ -1881,7 +1944,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -1890,7 +1953,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -1899,7 +1962,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -1912,49 +1975,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -1970,22 +2033,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1994,7 +2057,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2011,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
@@ -2026,7 +2089,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -2039,7 +2102,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -2052,7 +2115,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -2061,7 +2124,7 @@
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -2070,7 +2133,7 @@
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -2079,7 +2142,7 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -2088,7 +2151,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -2097,7 +2160,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -2106,7 +2169,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -2115,7 +2178,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -2124,7 +2187,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -2137,7 +2200,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
@@ -2152,7 +2215,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -2165,7 +2228,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -2174,7 +2237,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -2183,7 +2246,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -2196,7 +2259,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
@@ -2211,7 +2274,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -2220,7 +2283,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -2229,7 +2292,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -2242,49 +2305,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -2300,22 +2363,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2324,7 +2387,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2341,7 +2404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
@@ -2356,7 +2419,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -2369,7 +2432,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -2382,7 +2445,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -2395,7 +2458,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -2410,7 +2473,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -2423,7 +2486,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -2432,7 +2495,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -2441,7 +2504,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -2450,7 +2513,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -2459,7 +2522,7 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -2472,7 +2535,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -2485,7 +2548,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
@@ -2500,7 +2563,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -2515,7 +2578,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -2524,7 +2587,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -2537,7 +2600,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -2550,7 +2613,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
@@ -2565,7 +2628,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -2578,7 +2641,7 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -2591,7 +2654,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -2604,49 +2667,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -2662,22 +2725,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="84.625" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" customWidth="1"/>
+    <col min="2" max="2" width="29.6328125" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+    <col min="5" max="5" width="84.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -2686,7 +2749,7 @@
       <c r="D1" s="28"/>
       <c r="E1" s="29"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2703,7 +2766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
@@ -2718,7 +2781,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -2731,7 +2794,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -2744,7 +2807,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -2759,7 +2822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -2772,7 +2835,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -2787,7 +2850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -2802,7 +2865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -2817,7 +2880,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -2826,7 +2889,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -2839,7 +2902,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -2848,7 +2911,7 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -2861,7 +2924,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
@@ -2876,7 +2939,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -2885,7 +2948,7 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -2894,7 +2957,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -2903,7 +2966,7 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -2916,7 +2979,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
         <v>21</v>
       </c>
@@ -2931,7 +2994,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>22</v>
@@ -2940,7 +3003,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -2949,7 +3012,7 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -2962,49 +3025,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
       <c r="E30" s="22"/>
     </row>
   </sheetData>

--- a/项目进度控制表--樊佩茹.xlsx
+++ b/项目进度控制表--樊佩茹.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SDX\Desktop\SchoolMange4\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE6779-6C92-4EDA-A0D8-B69FE13CC394}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="24345" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -91,10 +85,16 @@
     <t>楼宇管理员</t>
   </si>
   <si>
+    <t>有错</t>
+  </si>
+  <si>
     <t>学生</t>
   </si>
   <si>
     <t>我的缺寝记录</t>
+  </si>
+  <si>
+    <t>部分功能未实现</t>
   </si>
   <si>
     <t>大部分功能未实现</t>
@@ -103,19 +103,20 @@
     <t>操作管理员未实现</t>
   </si>
   <si>
-    <t>部分功能未实现</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>未完全实现</t>
-    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,18 +194,156 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,8 +356,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -278,16 +603,258 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,7 +867,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -369,34 +936,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -445,7 +1041,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,26 +1074,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -530,23 +1109,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -717,36 +1279,36 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" customWidth="1"/>
-    <col min="3" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="84.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
+    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" ht="33.75" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -763,8 +1325,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -778,8 +1340,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="30"/>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -791,8 +1353,8 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="30"/>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -804,8 +1366,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="30"/>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -819,8 +1381,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="30"/>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -832,8 +1394,8 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="30"/>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -845,8 +1407,8 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="30"/>
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -858,8 +1420,8 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="30"/>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -871,44 +1433,60 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="30"/>
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="30"/>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D12" s="25">
+        <v>1</v>
+      </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="30"/>
+    <row r="13" ht="16.5" spans="1:5">
+      <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="30"/>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
+      <c r="C14" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D14" s="25">
+        <v>1</v>
+      </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="30" t="s">
+    <row r="15" ht="16.5" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -922,45 +1500,63 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="30"/>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="12"/>
+      <c r="C16" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D16" s="25">
+        <v>1</v>
+      </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="30"/>
+    <row r="17" ht="16.5" spans="1:5">
+      <c r="A17" s="5"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="30"/>
+      <c r="C17" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:5">
+      <c r="A18" s="5"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
+      <c r="C18" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D18" s="25">
+        <v>1</v>
+      </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="30"/>
+    <row r="19" ht="16.5" spans="1:5">
+      <c r="A19" s="5"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
+      <c r="C19" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D19" s="25">
+        <v>1</v>
+      </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="31" t="s">
-        <v>21</v>
+    <row r="20" ht="16.5" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>7</v>
@@ -973,76 +1569,88 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="31"/>
+    <row r="21" ht="16.5" spans="1:5">
+      <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="C21" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D21" s="25">
+        <v>1</v>
+      </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="31"/>
+    <row r="22" ht="16.5" spans="1:5">
+      <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
+      <c r="C22" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D22" s="25">
+        <v>1</v>
+      </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="31"/>
+    <row r="23" ht="16.5" spans="1:5">
+      <c r="A23" s="13"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
+      <c r="C23" s="7">
+        <v>43668</v>
+      </c>
+      <c r="D23" s="25">
+        <v>1</v>
+      </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" ht="16.5" spans="1:5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" ht="16.5" spans="1:5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" ht="16.5" spans="5:5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -1052,38 +1660,39 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" customWidth="1"/>
-    <col min="3" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="84.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
+    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" ht="33.75" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1100,8 +1709,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1111,8 +1720,8 @@
       <c r="D3" s="26"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="30"/>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1120,8 +1729,8 @@
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="30"/>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1129,8 +1738,8 @@
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="30"/>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1138,8 +1747,8 @@
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="30"/>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1147,8 +1756,8 @@
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="30"/>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1156,8 +1765,8 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="30"/>
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1165,8 +1774,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="30"/>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1174,8 +1783,8 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="30"/>
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1183,8 +1792,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="30"/>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1192,8 +1801,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="30"/>
+    <row r="13" ht="16.5" spans="1:5">
+      <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1201,8 +1810,8 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="30"/>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -1210,8 +1819,8 @@
       <c r="D14" s="12"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="30" t="s">
+    <row r="15" ht="16.5" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1221,8 +1830,8 @@
       <c r="D15" s="12"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="30"/>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -1230,8 +1839,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="30"/>
+    <row r="17" ht="16.5" spans="1:5">
+      <c r="A17" s="5"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1239,8 +1848,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="30"/>
+    <row r="18" ht="16.5" spans="1:5">
+      <c r="A18" s="5"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -1248,8 +1857,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="30"/>
+    <row r="19" ht="16.5" spans="1:5">
+      <c r="A19" s="5"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -1257,9 +1866,9 @@
       <c r="D19" s="12"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="31" t="s">
-        <v>21</v>
+    <row r="20" ht="16.5" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>7</v>
@@ -1268,17 +1877,17 @@
       <c r="D20" s="12"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="31"/>
+    <row r="21" ht="16.5" spans="1:5">
+      <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="31"/>
+    <row r="22" ht="16.5" spans="1:5">
+      <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1286,8 +1895,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="31"/>
+    <row r="23" ht="16.5" spans="1:5">
+      <c r="A23" s="13"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -1295,49 +1904,49 @@
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" ht="16.5" spans="1:5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" ht="16.5" spans="1:5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" ht="16.5" spans="5:5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -1347,29 +1956,30 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" customWidth="1"/>
-    <col min="3" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="84.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
+    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+    <row r="1" ht="33.75" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1988,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1395,7 +2005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" ht="18" customHeight="1" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1410,7 +2020,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="4" ht="16.5" spans="1:5">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -1423,7 +2033,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -1436,7 +2046,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="6" ht="16.5" spans="1:5">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -1449,7 +2059,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="7" ht="16.5" spans="1:5">
       <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1462,7 +2072,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="8" ht="16.5" spans="1:5">
       <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1475,7 +2085,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="9" ht="16.5" spans="1:5">
       <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -1484,7 +2094,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -1493,7 +2103,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -1502,7 +2112,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -1515,7 +2125,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" ht="16.5" spans="1:5">
       <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -1528,7 +2138,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" ht="16.5" spans="1:5">
       <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -1541,7 +2151,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="15" ht="16.5" spans="1:5">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1556,7 +2166,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="16" ht="16.5" spans="1:5">
       <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -1569,7 +2179,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="17" ht="16.5" spans="1:5">
       <c r="A17" s="5"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -1578,7 +2188,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="18" ht="16.5" spans="1:5">
       <c r="A18" s="5"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -1591,7 +2201,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="19" ht="16.5" spans="1:5">
       <c r="A19" s="5"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -1604,9 +2214,9 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="20" ht="16.5" spans="1:5">
       <c r="A20" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>7</v>
@@ -1619,16 +2229,16 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="21" ht="16.5" spans="1:5">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" ht="16.5" spans="1:5">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -1641,7 +2251,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="23" ht="16.5" spans="1:5">
       <c r="A23" s="13"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -1654,84 +2264,85 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" ht="16.5" spans="1:5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" ht="16.5" spans="1:5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" ht="16.5" spans="5:5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" customWidth="1"/>
-    <col min="3" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="84.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
+    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" ht="33.75" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1748,8 +2359,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1763,8 +2374,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="30"/>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1772,8 +2383,8 @@
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="30"/>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1785,8 +2396,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="30"/>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1794,8 +2405,8 @@
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="30"/>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1803,8 +2414,8 @@
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="30"/>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1812,8 +2423,8 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="30"/>
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1821,8 +2432,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="30"/>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1830,8 +2441,8 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="30"/>
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1839,8 +2450,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="30"/>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1848,8 +2459,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="30"/>
+    <row r="13" ht="16.5" spans="1:5">
+      <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1861,8 +2472,8 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="30"/>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -1874,8 +2485,8 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="30" t="s">
+    <row r="15" ht="16.5" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1889,8 +2500,8 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="30"/>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -1898,8 +2509,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="30"/>
+    <row r="17" ht="16.5" spans="1:5">
+      <c r="A17" s="5"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1907,8 +2518,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="30"/>
+    <row r="18" ht="16.5" spans="1:5">
+      <c r="A18" s="5"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -1916,8 +2527,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="30"/>
+    <row r="19" ht="16.5" spans="1:5">
+      <c r="A19" s="5"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -1929,9 +2540,9 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="31" t="s">
-        <v>21</v>
+    <row r="20" ht="16.5" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>7</v>
@@ -1944,17 +2555,17 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="31"/>
+    <row r="21" ht="16.5" spans="1:5">
+      <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="31"/>
+    <row r="22" ht="16.5" spans="1:5">
+      <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1962,8 +2573,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="31"/>
+    <row r="23" ht="16.5" spans="1:5">
+      <c r="A23" s="13"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -1975,49 +2586,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" ht="16.5" spans="1:5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" ht="16.5" spans="1:5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" ht="16.5" spans="5:5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -2027,37 +2638,38 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" customWidth="1"/>
-    <col min="3" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="84.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
+    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" ht="33.75" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2074,8 +2686,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2089,8 +2701,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="30"/>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -2102,8 +2714,8 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="30"/>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2111,39 +2723,51 @@
         <v>43667</v>
       </c>
       <c r="D5" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="30"/>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="11">
+        <v>43668</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="30"/>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="C7" s="11">
+        <v>43668</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="30"/>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
+      <c r="C8" s="11">
+        <v>43668</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0.5</v>
+      </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="30"/>
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2151,8 +2775,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="30"/>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -2160,8 +2784,8 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="30"/>
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2169,8 +2793,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="30"/>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -2178,8 +2802,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="30"/>
+    <row r="13" ht="16.5" spans="1:5">
+      <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -2187,8 +2811,8 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="30"/>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -2200,8 +2824,8 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="30" t="s">
+    <row r="15" ht="16.5" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2215,21 +2839,21 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="30"/>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="11">
         <v>43667</v>
       </c>
-      <c r="D16" s="8">
-        <v>0.5</v>
+      <c r="D16" s="25">
+        <v>1</v>
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="30"/>
+    <row r="17" ht="16.5" spans="1:5">
+      <c r="A17" s="5"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2237,8 +2861,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="30"/>
+    <row r="18" ht="16.5" spans="1:5">
+      <c r="A18" s="5"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -2246,8 +2870,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="30"/>
+    <row r="19" ht="16.5" spans="1:5">
+      <c r="A19" s="5"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -2259,9 +2883,9 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="31" t="s">
-        <v>21</v>
+    <row r="20" ht="16.5" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>7</v>
@@ -2274,17 +2898,17 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="31"/>
+    <row r="21" ht="16.5" spans="1:5">
+      <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="31"/>
+    <row r="22" ht="16.5" spans="1:5">
+      <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -2292,8 +2916,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="31"/>
+    <row r="23" ht="16.5" spans="1:5">
+      <c r="A23" s="13"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -2305,49 +2929,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" ht="16.5" spans="1:5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" ht="16.5" spans="1:5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" ht="16.5" spans="5:5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -2357,37 +2981,38 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" customWidth="1"/>
-    <col min="3" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="84.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
+    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" ht="33.75" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2404,8 +3029,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2419,8 +3044,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="30"/>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -2432,8 +3057,8 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="30"/>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2445,8 +3070,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="30"/>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2458,8 +3083,8 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="30"/>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -2470,11 +3095,11 @@
         <v>0.5</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="30"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -2486,8 +3111,8 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="30"/>
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2495,8 +3120,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="30"/>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -2504,8 +3129,8 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="30"/>
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2513,8 +3138,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="30"/>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -2522,8 +3147,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="30"/>
+    <row r="13" ht="16.5" spans="1:5">
+      <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -2535,8 +3160,8 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="30"/>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -2548,8 +3173,8 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="30" t="s">
+    <row r="15" ht="16.5" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2563,8 +3188,8 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="30"/>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -2575,11 +3200,11 @@
         <v>0.1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="30"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:5">
+      <c r="A17" s="5"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2587,8 +3212,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="30"/>
+    <row r="18" ht="16.5" spans="1:5">
+      <c r="A18" s="5"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -2600,8 +3225,8 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="30"/>
+    <row r="19" ht="16.5" spans="1:5">
+      <c r="A19" s="5"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -2613,9 +3238,9 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="31" t="s">
-        <v>21</v>
+    <row r="20" ht="16.5" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>7</v>
@@ -2628,10 +3253,10 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="31"/>
+    <row r="21" ht="16.5" spans="1:5">
+      <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="11">
         <v>43668</v>
@@ -2641,8 +3266,8 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="31"/>
+    <row r="22" ht="16.5" spans="1:5">
+      <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -2654,8 +3279,8 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="31"/>
+    <row r="23" ht="16.5" spans="1:5">
+      <c r="A23" s="13"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -2667,49 +3292,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" ht="16.5" spans="1:5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" ht="16.5" spans="1:5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" ht="16.5" spans="5:5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -2719,37 +3344,38 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D31:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" customWidth="1"/>
-    <col min="2" max="2" width="29.6328125" customWidth="1"/>
-    <col min="3" max="4" width="15.6328125" customWidth="1"/>
-    <col min="5" max="5" width="84.6328125" customWidth="1"/>
+    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
+    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
+    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
+    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" ht="33.75" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2766,8 +3392,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="30" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2781,8 +3407,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="30"/>
+    <row r="4" ht="16.5" spans="1:5">
+      <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -2794,8 +3420,8 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="30"/>
+    <row r="5" ht="16.5" spans="1:5">
+      <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2807,8 +3433,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="30"/>
+    <row r="6" ht="16.5" spans="1:5">
+      <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2819,11 +3445,11 @@
         <v>0.8</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="30"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
+      <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -2835,8 +3461,8 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="30"/>
+    <row r="8" ht="16.5" spans="1:5">
+      <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -2847,11 +3473,11 @@
         <v>0.2</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="30"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:5">
+      <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2862,11 +3488,11 @@
         <v>0.8</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="30"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
+      <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -2877,11 +3503,11 @@
         <v>0.8</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="30"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:5">
+      <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2889,8 +3515,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="30"/>
+    <row r="12" ht="16.5" spans="1:5">
+      <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -2902,8 +3528,8 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="30"/>
+    <row r="13" ht="16.5" spans="1:5">
+      <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -2911,8 +3537,8 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="30"/>
+    <row r="14" ht="16.5" spans="1:5">
+      <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -2924,8 +3550,8 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="30" t="s">
+    <row r="15" ht="16.5" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2939,8 +3565,8 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="30"/>
+    <row r="16" ht="16.5" spans="1:5">
+      <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -2948,8 +3574,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="30"/>
+    <row r="17" ht="16.5" spans="1:5">
+      <c r="A17" s="5"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2957,8 +3583,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="30"/>
+    <row r="18" ht="16.5" spans="1:5">
+      <c r="A18" s="5"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -2966,8 +3592,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="30"/>
+    <row r="19" ht="16.5" spans="1:5">
+      <c r="A19" s="5"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -2979,9 +3605,9 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="31" t="s">
-        <v>21</v>
+    <row r="20" ht="16.5" spans="1:5">
+      <c r="A20" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>7</v>
@@ -2994,17 +3620,17 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="31"/>
+    <row r="21" ht="16.5" spans="1:5">
+      <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="31"/>
+    <row r="22" ht="16.5" spans="1:5">
+      <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -3012,8 +3638,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="31"/>
+    <row r="23" ht="16.5" spans="1:5">
+      <c r="A23" s="13"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -3025,49 +3651,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="28" ht="16.5" spans="1:5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="29" ht="16.5" spans="1:5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="30" ht="16.5" spans="5:5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -3077,8 +3703,8 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/项目进度控制表--樊佩茹.xlsx
+++ b/项目进度控制表--樊佩茹.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT-depository\SchoolMange4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E756B1-8291-48EE-825A-92C71934665E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12465"/>
+    <workbookView xWindow="1950" yWindow="1770" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="樊佩茹" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="29">
   <si>
     <t>进度控制表-在线点餐的设计与实现</t>
   </si>
@@ -105,18 +111,16 @@
   <si>
     <t>未完全实现</t>
   </si>
+  <si>
+    <t>删除、修改有问题</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,18 +140,21 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -155,195 +162,66 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,194 +234,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -603,258 +295,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,7 +317,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -936,63 +386,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1279,34 +700,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="33.75">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
@@ -1325,8 +746,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1340,8 +761,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1353,8 +774,8 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1366,8 +787,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1381,8 +802,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:5" ht="16.5">
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1394,8 +815,8 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1407,8 +828,8 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1420,8 +841,8 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1433,8 +854,8 @@
       </c>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1446,8 +867,8 @@
       </c>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1459,8 +880,8 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:5" ht="16.5">
+      <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1472,8 +893,8 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:5" ht="16.5">
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -1485,8 +906,8 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="16.5">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1500,8 +921,8 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:5" ht="16.5">
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -1513,8 +934,8 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" ht="16.5">
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1528,8 +949,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" ht="16.5">
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -1541,8 +962,8 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" ht="16.5">
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -1554,8 +975,8 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" ht="16.5">
+      <c r="A20" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -1569,8 +990,8 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" ht="16.5">
+      <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1582,8 +1003,8 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:5" ht="16.5">
+      <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1595,8 +1016,8 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:5" ht="16.5">
+      <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -1608,49 +1029,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -1660,37 +1081,36 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="33.75">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
@@ -1709,8 +1129,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1720,8 +1140,8 @@
       <c r="D3" s="26"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -1729,8 +1149,8 @@
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -1738,8 +1158,8 @@
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1747,8 +1167,8 @@
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:5" ht="16.5">
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -1756,8 +1176,8 @@
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -1765,8 +1185,8 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -1774,8 +1194,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1783,8 +1203,8 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -1792,8 +1212,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -1801,8 +1221,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:5" ht="16.5">
+      <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -1810,8 +1230,8 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:5" ht="16.5">
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -1819,8 +1239,8 @@
       <c r="D14" s="12"/>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="16.5">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1830,8 +1250,8 @@
       <c r="D15" s="12"/>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:5" ht="16.5">
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -1839,8 +1259,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" ht="16.5">
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1848,8 +1268,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" ht="16.5">
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -1857,8 +1277,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" ht="16.5">
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -1866,8 +1286,8 @@
       <c r="D19" s="12"/>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" ht="16.5">
+      <c r="A20" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -1877,8 +1297,8 @@
       <c r="D20" s="12"/>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" ht="16.5">
+      <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -1886,8 +1306,8 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:5" ht="16.5">
+      <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -1895,8 +1315,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:5" ht="16.5">
+      <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -1904,49 +1324,49 @@
       <c r="D23" s="12"/>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -1956,30 +1376,29 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
+    <row r="1" spans="1:5" ht="33.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2005,7 +1424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2020,7 +1439,7 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
+    <row r="4" spans="1:5" ht="16.5">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
@@ -2033,7 +1452,7 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
+    <row r="5" spans="1:5" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
@@ -2046,7 +1465,7 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
@@ -2059,7 +1478,7 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -2072,7 +1491,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="5"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -2085,7 +1504,7 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="5"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -2094,7 +1513,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="5"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -2103,7 +1522,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
@@ -2112,7 +1531,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="5"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
@@ -2125,7 +1544,7 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
+    <row r="13" spans="1:5" ht="16.5">
       <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
@@ -2138,7 +1557,7 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="A14" s="5"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
@@ -2151,7 +1570,7 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
+    <row r="15" spans="1:5" ht="16.5">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -2166,7 +1585,7 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
+    <row r="16" spans="1:5" ht="16.5">
       <c r="A16" s="5"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
@@ -2179,7 +1598,7 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
+    <row r="17" spans="1:5" ht="16.5">
       <c r="A17" s="5"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -2188,7 +1607,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
+    <row r="18" spans="1:5" ht="16.5">
       <c r="A18" s="5"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
@@ -2201,7 +1620,7 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="5"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
@@ -2214,7 +1633,7 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="13" t="s">
         <v>22</v>
       </c>
@@ -2229,7 +1648,7 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="13"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
@@ -2238,7 +1657,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
+    <row r="22" spans="1:5" ht="16.5">
       <c r="A22" s="13"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
@@ -2251,7 +1670,7 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
+    <row r="23" spans="1:5" ht="16.5">
       <c r="A23" s="13"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
@@ -2264,83 +1683,82 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="33.75">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
@@ -2359,8 +1777,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2374,8 +1792,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -2383,8 +1801,8 @@
       <c r="D4" s="12"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2396,8 +1814,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2405,8 +1823,8 @@
       <c r="D6" s="12"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:5" ht="16.5">
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -2414,8 +1832,8 @@
       <c r="D7" s="12"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -2423,8 +1841,8 @@
       <c r="D8" s="12"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2432,8 +1850,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -2441,8 +1859,8 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2450,8 +1868,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -2459,8 +1877,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:5" ht="16.5">
+      <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -2472,8 +1890,8 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:5" ht="16.5">
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -2485,8 +1903,8 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="16.5">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2500,8 +1918,8 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:5" ht="16.5">
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -2509,8 +1927,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" ht="16.5">
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2518,8 +1936,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" ht="16.5">
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -2527,8 +1945,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" ht="16.5">
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -2540,8 +1958,8 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" ht="16.5">
+      <c r="A20" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -2555,8 +1973,8 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" ht="16.5">
+      <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -2564,8 +1982,8 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:5" ht="16.5">
+      <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -2573,8 +1991,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:5" ht="16.5">
+      <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -2586,49 +2004,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -2638,36 +2056,35 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="33.75">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
@@ -2686,8 +2103,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -2701,8 +2118,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -2714,8 +2131,8 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -2727,8 +2144,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -2740,8 +2157,8 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:5" ht="16.5">
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -2749,25 +2166,23 @@
         <v>43668</v>
       </c>
       <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="11">
-        <v>43668</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -2775,8 +2190,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -2784,8 +2199,8 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -2793,8 +2208,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -2802,8 +2217,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:5" ht="16.5">
+      <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -2811,8 +2226,8 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:5" ht="16.5">
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -2824,8 +2239,8 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="16.5">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -2839,8 +2254,8 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:5" ht="16.5">
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -2852,8 +2267,8 @@
       </c>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" ht="16.5">
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -2861,8 +2276,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" ht="16.5">
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -2870,8 +2285,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" ht="16.5">
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -2883,8 +2298,8 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" ht="16.5">
+      <c r="A20" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -2898,8 +2313,8 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" ht="16.5">
+      <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -2907,8 +2322,8 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:5" ht="16.5">
+      <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -2916,8 +2331,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:5" ht="16.5">
+      <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -2929,49 +2344,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -2981,36 +2396,35 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="33.75">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
@@ -3029,8 +2443,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -3044,8 +2458,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -3057,8 +2471,8 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -3070,8 +2484,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -3083,8 +2497,8 @@
       </c>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:5" ht="16.5">
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -3098,8 +2512,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -3111,8 +2525,8 @@
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -3120,8 +2534,8 @@
       <c r="D9" s="12"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -3129,8 +2543,8 @@
       <c r="D10" s="8"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -3138,8 +2552,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -3147,8 +2561,8 @@
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:5" ht="16.5">
+      <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -3160,8 +2574,8 @@
       </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:5" ht="16.5">
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -3173,8 +2587,8 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="16.5">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -3188,8 +2602,8 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:5" ht="16.5">
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -3203,8 +2617,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" ht="16.5">
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -3212,8 +2626,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" ht="16.5">
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -3225,8 +2639,8 @@
       </c>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" ht="16.5">
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -3238,8 +2652,8 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" ht="16.5">
+      <c r="A20" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -3253,8 +2667,8 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" ht="16.5">
+      <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -3266,8 +2680,8 @@
       </c>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:5" ht="16.5">
+      <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -3279,8 +2693,8 @@
       </c>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:5" ht="16.5">
+      <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -3292,49 +2706,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -3344,36 +2758,35 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D31:D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.6333333333333" customWidth="1"/>
-    <col min="2" max="2" width="29.6333333333333" customWidth="1"/>
-    <col min="3" max="4" width="15.6333333333333" customWidth="1"/>
-    <col min="5" max="5" width="84.6333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="84.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33.75" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="33.75">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
@@ -3392,8 +2805,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:5">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="18" customHeight="1">
+      <c r="A3" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -3407,8 +2820,8 @@
       </c>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:5" ht="16.5">
+      <c r="A4" s="30"/>
       <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
@@ -3420,8 +2833,8 @@
       </c>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:5" ht="16.5">
+      <c r="A5" s="30"/>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
@@ -3433,8 +2846,8 @@
       </c>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:5" ht="16.5">
+      <c r="A6" s="30"/>
       <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
@@ -3448,8 +2861,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:5" ht="16.5">
+      <c r="A7" s="30"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
@@ -3461,8 +2874,8 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:5" ht="16.5">
+      <c r="A8" s="30"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
@@ -3476,8 +2889,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9" s="30"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
@@ -3491,8 +2904,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:5" ht="16.5">
+      <c r="A10" s="30"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
@@ -3506,8 +2919,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:5">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:5" ht="16.5">
+      <c r="A11" s="30"/>
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -3515,8 +2928,8 @@
       <c r="D11" s="8"/>
       <c r="E11" s="9"/>
     </row>
-    <row r="12" ht="16.5" spans="1:5">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:5" ht="16.5">
+      <c r="A12" s="30"/>
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -3528,8 +2941,8 @@
       </c>
       <c r="E12" s="9"/>
     </row>
-    <row r="13" ht="16.5" spans="1:5">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:5" ht="16.5">
+      <c r="A13" s="30"/>
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -3537,8 +2950,8 @@
       <c r="D13" s="12"/>
       <c r="E13" s="9"/>
     </row>
-    <row r="14" ht="16.5" spans="1:5">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:5" ht="16.5">
+      <c r="A14" s="30"/>
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
@@ -3550,8 +2963,8 @@
       </c>
       <c r="E14" s="9"/>
     </row>
-    <row r="15" ht="16.5" spans="1:5">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:5" ht="16.5">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -3565,8 +2978,8 @@
       </c>
       <c r="E15" s="9"/>
     </row>
-    <row r="16" ht="16.5" spans="1:5">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:5" ht="16.5">
+      <c r="A16" s="30"/>
       <c r="B16" s="10" t="s">
         <v>9</v>
       </c>
@@ -3574,8 +2987,8 @@
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" ht="16.5" spans="1:5">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" ht="16.5">
+      <c r="A17" s="30"/>
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -3583,8 +2996,8 @@
       <c r="D17" s="8"/>
       <c r="E17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:5">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" ht="16.5">
+      <c r="A18" s="30"/>
       <c r="B18" s="10" t="s">
         <v>18</v>
       </c>
@@ -3592,8 +3005,8 @@
       <c r="D18" s="12"/>
       <c r="E18" s="9"/>
     </row>
-    <row r="19" ht="16.5" spans="1:5">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" ht="16.5">
+      <c r="A19" s="30"/>
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -3605,8 +3018,8 @@
       </c>
       <c r="E19" s="9"/>
     </row>
-    <row r="20" ht="16.5" spans="1:5">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:5" ht="16.5">
+      <c r="A20" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -3620,8 +3033,8 @@
       </c>
       <c r="E20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:5">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" ht="16.5">
+      <c r="A21" s="31"/>
       <c r="B21" s="10" t="s">
         <v>23</v>
       </c>
@@ -3629,8 +3042,8 @@
       <c r="D21" s="12"/>
       <c r="E21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:5">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:5" ht="16.5">
+      <c r="A22" s="31"/>
       <c r="B22" s="10" t="s">
         <v>18</v>
       </c>
@@ -3638,8 +3051,8 @@
       <c r="D22" s="12"/>
       <c r="E22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:5">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:5" ht="16.5">
+      <c r="A23" s="31"/>
       <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
@@ -3651,49 +3064,49 @@
       </c>
       <c r="E23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:5">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" ht="16.5" spans="1:5">
+    <row r="25" spans="1:5" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
     </row>
-    <row r="26" ht="16.5" spans="1:5">
+    <row r="26" spans="1:5" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
     </row>
-    <row r="27" ht="16.5" spans="1:5">
+    <row r="27" spans="1:5" ht="16.5">
       <c r="A27" s="19"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
     </row>
-    <row r="28" ht="16.5" spans="1:5">
+    <row r="28" spans="1:5" ht="16.5">
       <c r="A28" s="19"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
       <c r="D28" s="17"/>
       <c r="E28" s="18"/>
     </row>
-    <row r="29" ht="16.5" spans="1:5">
+    <row r="29" spans="1:5" ht="16.5">
       <c r="A29" s="20"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="17"/>
       <c r="E29" s="21"/>
     </row>
-    <row r="30" ht="16.5" spans="5:5">
+    <row r="30" spans="1:5" ht="16.5">
       <c r="E30" s="22"/>
     </row>
   </sheetData>
@@ -3703,8 +3116,8 @@
     <mergeCell ref="A15:A19"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>